--- a/data/trans_dic/P18_6_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P18_6_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido tranquila en ningún momento o casi ningún momento en la última semana</t>
+          <t>Población que se ha sentido tranquila en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,12 +681,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,47 +696,62 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>7,64%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,94%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>8,6%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>8,01%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,8</t>
+          <t>0,0; 15,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 21,95</t>
+          <t>0,0; 13,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,36; 21,91</t>
+          <t>4,43; 24,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,3; 20,81</t>
+          <t>4,57; 25,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,08; 20,33</t>
+          <t>4,31; 22,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,49; 14,26</t>
+          <t>5,23; 27,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,58; 12,96</t>
+          <t>5,0; 29,98</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,73; 10,37</t>
+          <t>2,54; 14,97</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,47; 9,74</t>
+          <t>2,84; 15,43</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2,29; 12,52</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3,9; 16,98</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>3,27; 19,17</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>20,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>23,82%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>12,28%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>19,19%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>8,67%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>15,62%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,9; 37,93</t>
+          <t>0,0; 49,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 40,47</t>
+          <t>2,3; 57,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,9; 38,56</t>
+          <t>6,93; 57,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 14,8</t>
+          <t>1,49; 17,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,17; 27,24</t>
+          <t>2,42; 21,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 13,64</t>
+          <t>7,17; 27,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,42; 24,99</t>
+          <t>0,0; 13,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,06; 19,0</t>
+          <t>5,67; 24,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,0; 29,19</t>
+          <t>5,24; 23,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,01; 23,51</t>
+          <t>14,03; 39,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,32; 27,44</t>
+          <t>7,23; 31,49</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,21; 14,05</t>
+          <t>3,1; 37,88</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>9,54; 38,29</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>4,11; 15,3</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>8,59; 25,12</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>14,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>8,75%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>10,22%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>10,99%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>15,12%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,42; 18,65</t>
+          <t>3,52; 20,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 11,77</t>
+          <t>3,45; 19,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 10,35</t>
+          <t>1,79; 15,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,6; 15,28</t>
+          <t>3,39; 20,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,01; 21,68</t>
+          <t>6,51; 25,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,45; 13,91</t>
+          <t>11,24; 28,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,38; 19,84</t>
+          <t>3,87; 15,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,35; 18,72</t>
+          <t>7,4; 20,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,15; 17,85</t>
+          <t>7,21; 19,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,6; 10,54</t>
+          <t>9,07; 24,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,46; 13,64</t>
+          <t>10,13; 21,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,13; 14,89</t>
+          <t>4,81; 13,68</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>5,54; 15,53</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>6,38; 16,16</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>10,46; 20,94</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>18,77%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>7,07%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>13,83%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>11,61%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>15,33%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 11,78</t>
+          <t>1,32; 12,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 8,05</t>
+          <t>0,0; 8,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,83; 11,86</t>
+          <t>3,77; 18,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,68; 16,52</t>
+          <t>3,03; 15,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,77; 24,62</t>
+          <t>4,0; 17,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,3; 16,91</t>
+          <t>14,47; 30,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,18; 22,69</t>
+          <t>5,79; 17,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,47; 20,8</t>
+          <t>12,39; 27,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,46; 17,19</t>
+          <t>8,81; 22,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,31; 11,59</t>
+          <t>13,7; 29,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,55; 15,7</t>
+          <t>9,7; 19,48</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,15; 16,7</t>
+          <t>4,16; 12,1</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>9,53; 19,05</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>7,75; 16,92</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>10,67; 21,66</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>7,17%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>12,49%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>12,49%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>13,51%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 9,92</t>
+          <t>1,38; 12,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,38; 11,23</t>
+          <t>2,58; 15,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,64; 13,73</t>
+          <t>3,12; 18,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,22; 15,16</t>
+          <t>3,21; 17,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,81; 21,99</t>
+          <t>3,09; 16,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,62; 11,48</t>
+          <t>5,73; 25,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,81; 22,31</t>
+          <t>1,9; 17,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,96; 21,55</t>
+          <t>8,78; 30,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,85; 13,34</t>
+          <t>9,3; 29,96</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,14; 9,1</t>
+          <t>10,4; 34,04</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,84; 15,4</t>
+          <t>4,66; 15,19</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,53; 15,87</t>
+          <t>3,83; 13,53</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>6,95; 19,11</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>6,85; 18,93</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>7,97; 21,33</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1531,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1371,47 +1546,62 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>4,82%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>4,44%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>7,0%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>12,18%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,18; 11,67</t>
+          <t>0,0; 14,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,05</t>
+          <t>0,0; 18,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,35; 25,95</t>
+          <t>5,06; 30,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,07; 23,99</t>
+          <t>5,08; 31,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,56; 21,89</t>
+          <t>2,11; 17,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,23; 26,98</t>
+          <t>2,39; 19,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,62; 16,35</t>
+          <t>1,88; 19,77</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,25; 12,66</t>
+          <t>3,62; 25,62</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,1; 12,92</t>
+          <t>3,88; 19,16</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,58; 19,63</t>
+          <t>1,21; 11,01</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 10,59</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 15,44</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>6,01; 21,41</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>8,14%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>11,53%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>10,05%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>13,6%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,12; 11,71</t>
+          <t>3,88; 15,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,5; 10,75</t>
+          <t>3,66; 19,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,68; 10,44</t>
+          <t>4,77; 17,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,49; 8,45</t>
+          <t>4,46; 10,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,53; 19,06</t>
+          <t>6,27; 13,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,78; 11,4</t>
+          <t>13,53; 20,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,51; 17,0</t>
+          <t>6,42; 12,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,62; 16,06</t>
+          <t>10,91; 18,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,23; 14,37</t>
+          <t>9,97; 16,98</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,78; 9,92</t>
+          <t>14,07; 22,23</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,31; 12,4</t>
+          <t>9,76; 15,94</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,13; 11,7</t>
+          <t>6,08; 13,1</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>9,16; 16,46</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>7,84; 12,55</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>10,93; 16,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido tranquila en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,75%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3952</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3757</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15350</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18404</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>13407</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>17546</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>19570</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>15350</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>18404</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>13407</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>21498</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>23327</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19694</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19079</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5210; 28270</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6127; 34694</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5180; 27302</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6407; 34046</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7275; 43617</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5165; 30484</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6835; 37180</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5162; 28280</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>9741; 42462</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>9534; 55853</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19998</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>33626</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>34155</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>9050</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>19793</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>20681</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6976</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17665</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>15271</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>41134</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>40679</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>40603</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>51820</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>24321</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>60927</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 68098</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3806; 95472</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9932; 82809</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2306; 26870</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5511; 47906</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>9554; 36863</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 21991</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7183; 30769</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6621; 30139</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>22787; 64234</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>19535; 85055</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>10244; 125271</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>25759; 103429</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>11523; 42935</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>33509; 97967</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14049</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16383</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7502</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12710</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>25311</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>39791</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>20919</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>27639</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>24439</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>38197</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>53841</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>37302</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>35141</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>37149</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>63508</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4921; 28280</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5594; 31237</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2411; 20151</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4668; 27655</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11741; 45643</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>24215; 61244</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10212; 41005</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15502; 43733</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14458; 39386</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>21736; 59833</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>35959; 77339</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>20512; 58283</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>19047; 53394</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>21562; 54635</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>43938; 87947</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8500</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4691</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>13133</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>12475</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>18609</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>41428</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>23943</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>34894</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>25694</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>44901</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>49928</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>28633</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>48028</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>38169</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>63510</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2156; 19968</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 16230</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6085; 29850</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4726; 24515</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8064; 35921</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>27670; 58077</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>12646; 38361</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>23030; 50577</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>15197; 38362</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>29136; 63441</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>34426; 69124</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>16838; 49006</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>33091; 66149</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>25470; 55596</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>44209; 89720</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7654</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10950</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>11260</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>10879</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>11909</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>14073</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>8501</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>16709</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>16078</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>26723</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>21727</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>19452</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>27969</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>26957</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>38632</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1913; 17171</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4062; 24509</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4120; 24440</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3960; 21670</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4702; 25809</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5820; 25413</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2158; 19772</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8064; 28080</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8614; 27767</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>13930; 45591</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>11204; 36527</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>10397; 36690</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>15562; 42800</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>14780; 40872</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>22787; 60994</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2388</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>5215</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>18613</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>14900</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>11907</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>8541</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>8833</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>23451</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>17287</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>11907</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>8541</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>14048</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>42064</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 12062</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 16782</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>6973; 42209</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>5188; 32084</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2898; 24288</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2514; 19996</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2082; 21863</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>7502; 53152</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>7255; 35794</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>2992; 27183</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>2054; 20388</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>5035; 30986</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>20742; 73923</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>52589</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>65651</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>66050</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>54282</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>97992</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>146224</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>90649</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>118855</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>107862</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>193977</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>198813</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>156300</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>184905</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>162144</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>291968</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>29098; 118115</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>32473; 168867</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>36416; 134315</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>35174; 81260</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>65545; 138704</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>116538; 176868</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>66291; 125173</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>91572; 153552</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>82243; 140067</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>155032; 244925</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>157154; 256715</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>116844; 251635</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>146780; 263874</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>126592; 202525</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>234587; 357470</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>